--- a/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>261397</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>247620</v>
+        <v>248058</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>271200</v>
+        <v>271232</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9072414061417834</v>
+        <v>0.9072414061417833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8594252750349919</v>
+        <v>0.8609454709506212</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9412661547029361</v>
+        <v>0.9413756289556948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>466</v>
@@ -762,19 +762,19 @@
         <v>294709</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>285818</v>
+        <v>285523</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>302537</v>
+        <v>302002</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9109758895238305</v>
+        <v>0.9109758895238304</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8834947400550712</v>
+        <v>0.8825827460344562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9351726936760925</v>
+        <v>0.933518781831538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>738</v>
@@ -783,19 +783,19 @@
         <v>556106</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>539651</v>
+        <v>540872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>567528</v>
+        <v>568945</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9092166777858967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8823127230721727</v>
+        <v>0.8843101310520953</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9278908789312946</v>
+        <v>0.9302077876143731</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>21963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13532</v>
+        <v>13601</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34345</v>
+        <v>34894</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07622855907890526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04696670755423255</v>
+        <v>0.04720397320506788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1192039608371228</v>
+        <v>0.1211065842561202</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -833,19 +833,19 @@
         <v>25749</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18230</v>
+        <v>18652</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34556</v>
+        <v>34704</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07959385676773915</v>
+        <v>0.07959385676773914</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05635185979967015</v>
+        <v>0.05765618340418537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1068169631481463</v>
+        <v>0.1072742858120629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -854,19 +854,19 @@
         <v>47713</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37129</v>
+        <v>36593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64486</v>
+        <v>62258</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0780085581895482</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06070414990209245</v>
+        <v>0.05982837211497469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1054328650709725</v>
+        <v>0.1017906565988207</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9762</v>
+        <v>9462</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01004733454980841</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0338807665432521</v>
+        <v>0.03284030854930753</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3964</v>
+        <v>3865</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002115383478228391</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0122517290407703</v>
+        <v>0.01194720501622893</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -925,19 +925,19 @@
         <v>3579</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10549</v>
+        <v>10980</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005851906044353294</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001107838405646583</v>
+        <v>0.001131767457005228</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01724742508307546</v>
+        <v>0.01795168164622432</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9147</v>
+        <v>9279</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006482700229503031</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03174595295301127</v>
+        <v>0.03220615541389667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -975,19 +975,19 @@
         <v>2366</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>524</v>
+        <v>662</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5847</v>
+        <v>5976</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.007314870230202324</v>
+        <v>0.007314870230202322</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001618674292999327</v>
+        <v>0.002047245052853515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0180725143408377</v>
+        <v>0.01847224900686089</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -996,19 +996,19 @@
         <v>4234</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1452</v>
+        <v>1362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13655</v>
+        <v>11515</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00692285798020168</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002374653928966273</v>
+        <v>0.002227138532018781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02232545602113509</v>
+        <v>0.01882661584296243</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>425741</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>407418</v>
+        <v>407195</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>438901</v>
+        <v>439192</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9073669739750375</v>
+        <v>0.9073669739750373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8683154761203273</v>
+        <v>0.8678399050749374</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.935414123188102</v>
+        <v>0.9360341153420807</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>605</v>
@@ -1121,19 +1121,19 @@
         <v>430583</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>415214</v>
+        <v>415190</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>444989</v>
+        <v>444125</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8563667355748787</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8258009319878066</v>
+        <v>0.8257517434638936</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8850181058517103</v>
+        <v>0.8833006906528053</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>997</v>
@@ -1142,19 +1142,19 @@
         <v>856324</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>835022</v>
+        <v>832153</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>875616</v>
+        <v>875849</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8809854527782147</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8590698349431427</v>
+        <v>0.8561181526065661</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9008326986406507</v>
+        <v>0.9010728174264071</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>39004</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26080</v>
+        <v>25544</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57335</v>
+        <v>56651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08312767813231947</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05558371143071724</v>
+        <v>0.05444084104853938</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1221953842407124</v>
+        <v>0.1207391773391627</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -1192,19 +1192,19 @@
         <v>53943</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42560</v>
+        <v>42750</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68177</v>
+        <v>70405</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.107284451079015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08464475591785918</v>
+        <v>0.08502447782076762</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1355936839824177</v>
+        <v>0.1400246182570766</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -1213,19 +1213,19 @@
         <v>92947</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74937</v>
+        <v>73316</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>113172</v>
+        <v>115337</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09562354947589535</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07709483462868484</v>
+        <v>0.07542732448120336</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1164314398870059</v>
+        <v>0.1186589928887019</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>2272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6763</v>
+        <v>6650</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.004842547904289198</v>
+        <v>0.004842547904289197</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001088062011647746</v>
+        <v>0.001091429599375322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01441396733801525</v>
+        <v>0.01417199945960213</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -1263,19 +1263,19 @@
         <v>14017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8363</v>
+        <v>8761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22945</v>
+        <v>22493</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02787868334540154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01663204871202894</v>
+        <v>0.01742493089433409</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04563347222493527</v>
+        <v>0.04473468623402747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -1284,19 +1284,19 @@
         <v>16290</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10575</v>
+        <v>10332</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24301</v>
+        <v>24799</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01675873328884012</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01087911750079534</v>
+        <v>0.0106291525560827</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02500103621278782</v>
+        <v>0.02551323116155479</v>
       </c>
     </row>
     <row r="12">
@@ -1316,16 +1316,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8268</v>
+        <v>7284</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.00466279998835393</v>
+        <v>0.004662799988353929</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0176208230463948</v>
+        <v>0.01552426576288258</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1334,19 +1334,19 @@
         <v>4259</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8457</v>
+        <v>8207</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008470130000704788</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003533610782536415</v>
+        <v>0.003561880623958236</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01681920033479171</v>
+        <v>0.01632267243979819</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1355,19 +1355,19 @@
         <v>6447</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3168</v>
+        <v>3042</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12392</v>
+        <v>12248</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00663226445704984</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003259318411502361</v>
+        <v>0.003129639248310064</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.012748381638068</v>
+        <v>0.01260086918398705</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>325299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>309299</v>
+        <v>308380</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>339048</v>
+        <v>339349</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8661239114060653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8235246424492527</v>
+        <v>0.8210760931690007</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9027328002901451</v>
+        <v>0.9035333810425904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>407</v>
@@ -1480,19 +1480,19 @@
         <v>320132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>307746</v>
+        <v>306475</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>332520</v>
+        <v>332135</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.846790965609252</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8140274890012076</v>
+        <v>0.8106672792807152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8795595098478048</v>
+        <v>0.8785396853592411</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>678</v>
@@ -1501,19 +1501,19 @@
         <v>645431</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>624034</v>
+        <v>624103</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>663451</v>
+        <v>662978</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8564257263473899</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8280336990346903</v>
+        <v>0.8281262258202633</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8803369419193153</v>
+        <v>0.8797095741280265</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>28596</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18495</v>
+        <v>19171</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>42426</v>
+        <v>44573</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0761372712483587</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04924325357881695</v>
+        <v>0.05104471623372605</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1129603907042314</v>
+        <v>0.1186784427880997</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -1551,19 +1551,19 @@
         <v>32125</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23486</v>
+        <v>23947</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41757</v>
+        <v>43118</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.08497569939416613</v>
+        <v>0.08497569939416615</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06212390126862455</v>
+        <v>0.06334269345869324</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1104524111108521</v>
+        <v>0.1140526782460764</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>71</v>
@@ -1572,19 +1572,19 @@
         <v>60721</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>46802</v>
+        <v>47265</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>77269</v>
+        <v>77437</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08057098314548594</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06210199262706249</v>
+        <v>0.06271574828867581</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1025288939240164</v>
+        <v>0.1027512248885007</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>19765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11424</v>
+        <v>11684</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33397</v>
+        <v>36177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05262554836899499</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03041788580607462</v>
+        <v>0.03110931259218366</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08892242290526874</v>
+        <v>0.09632326231437362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -1622,19 +1622,19 @@
         <v>22659</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15425</v>
+        <v>15424</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32717</v>
+        <v>33797</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05993516017557594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04080039525271499</v>
+        <v>0.04079824876239323</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08653967730702324</v>
+        <v>0.08939630375336981</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1643,19 +1643,19 @@
         <v>42424</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31240</v>
+        <v>30280</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59519</v>
+        <v>58502</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05629234435302898</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04145228775377687</v>
+        <v>0.04017898710884261</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07897663126823293</v>
+        <v>0.07762682886943768</v>
       </c>
     </row>
     <row r="17">
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6781</v>
+        <v>6139</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0051132689765812</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01805584941681142</v>
+        <v>0.01634562713484851</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1693,19 +1693,19 @@
         <v>3137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7348</v>
+        <v>7022</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008298174821005814</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002884864214825265</v>
+        <v>0.002877767471289448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01943672675969947</v>
+        <v>0.01857512187580226</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1714,19 +1714,19 @@
         <v>5058</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2227</v>
+        <v>2196</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10574</v>
+        <v>10384</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006710946154095378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002955561133355848</v>
+        <v>0.002913434582381016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01403054529303733</v>
+        <v>0.0137787571806653</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>374882</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>358612</v>
+        <v>358125</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>389472</v>
+        <v>388746</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8650604968338876</v>
+        <v>0.8650604968338875</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8275172017582334</v>
+        <v>0.8263943715307051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8987279136028286</v>
+        <v>0.8970529859315105</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>566</v>
@@ -1839,19 +1839,19 @@
         <v>426521</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>414196</v>
+        <v>413026</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>438499</v>
+        <v>438104</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8691494688912308</v>
+        <v>0.8691494688912309</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8440338915640937</v>
+        <v>0.8416499982664997</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8935580831356312</v>
+        <v>0.8927535021747508</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>933</v>
@@ -1860,19 +1860,19 @@
         <v>801403</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>778412</v>
+        <v>779115</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>820092</v>
+        <v>819591</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8672319192976582</v>
+        <v>0.8672319192976581</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8423524277251692</v>
+        <v>0.8431129710487381</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8874557710818584</v>
+        <v>0.8869140033600723</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>49766</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37244</v>
+        <v>37885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66191</v>
+        <v>66876</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1148366864644423</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08594335153093868</v>
+        <v>0.08742059461639536</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1527389006288404</v>
+        <v>0.1543195612454233</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>78</v>
@@ -1910,19 +1910,19 @@
         <v>49852</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38899</v>
+        <v>39708</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60483</v>
+        <v>62039</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1015864936323429</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07926766828990513</v>
+        <v>0.08091476670280609</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1232492098733867</v>
+        <v>0.1264210780751683</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>128</v>
@@ -1931,19 +1931,19 @@
         <v>99617</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>82674</v>
+        <v>83366</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>121779</v>
+        <v>119195</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1078002562904475</v>
+        <v>0.1078002562904476</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08946556061932448</v>
+        <v>0.09021348387078792</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1317824452479556</v>
+        <v>0.1289863873893103</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>6056</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2381</v>
+        <v>2296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13412</v>
+        <v>13472</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0139756703235936</v>
+        <v>0.01397567032359361</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005494683348513273</v>
+        <v>0.005298168854411746</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03094788441826785</v>
+        <v>0.031087260688464</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1981,19 +1981,19 @@
         <v>3194</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1301</v>
+        <v>1167</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6976</v>
+        <v>7073</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.006508776639612605</v>
+        <v>0.006508776639612604</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002652148953267576</v>
+        <v>0.002377055872126406</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0142146928947661</v>
+        <v>0.01441333429924756</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -2002,19 +2002,19 @@
         <v>9251</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4688</v>
+        <v>4617</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18219</v>
+        <v>16455</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01001042418040599</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005072702568366374</v>
+        <v>0.004995941141569179</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0197155087187492</v>
+        <v>0.01780654081164075</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>2655</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7302</v>
+        <v>7322</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006127146378076586</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001341672998462552</v>
+        <v>0.001344865553232114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01684990381084891</v>
+        <v>0.01689593300457955</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -2052,19 +2052,19 @@
         <v>11167</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5956</v>
+        <v>6381</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17396</v>
+        <v>18381</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02275526083681373</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01213722387059702</v>
+        <v>0.01300230323040479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03544965732484286</v>
+        <v>0.03745582855030197</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -2073,19 +2073,19 @@
         <v>13822</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7906</v>
+        <v>8719</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21094</v>
+        <v>21962</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01495740023148842</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008555180943238453</v>
+        <v>0.009434941400928471</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02282637366307637</v>
+        <v>0.02376567804578828</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>1387320</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1355205</v>
+        <v>1353496</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1413598</v>
+        <v>1411681</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8857485931160735</v>
+        <v>0.8857485931160733</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8652448955773668</v>
+        <v>0.8641534439781529</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9025260851871433</v>
+        <v>0.9013022206870045</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2044</v>
@@ -2198,19 +2198,19 @@
         <v>1471945</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1444546</v>
+        <v>1447409</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1495302</v>
+        <v>1495384</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8683538576187758</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8521901730896088</v>
+        <v>0.8538791328934012</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8821332671894024</v>
+        <v>0.8821813539598369</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3346</v>
@@ -2219,19 +2219,19 @@
         <v>2859264</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2815404</v>
+        <v>2815547</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2893970</v>
+        <v>2892263</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.87670766310073</v>
+        <v>0.8767076631007301</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8632595154052809</v>
+        <v>0.8633031289824943</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8873492545577654</v>
+        <v>0.8868260030810007</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>139328</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>115464</v>
+        <v>118482</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>168689</v>
+        <v>169295</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08895563504512854</v>
+        <v>0.08895563504512853</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07371919696580689</v>
+        <v>0.07564584590401097</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.10770154992216</v>
+        <v>0.1080879454771879</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>240</v>
@@ -2269,19 +2269,19 @@
         <v>161669</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>141602</v>
+        <v>142332</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>184875</v>
+        <v>183174</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09537467711000275</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08353628697723874</v>
+        <v>0.08396710553407964</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1090644070825559</v>
+        <v>0.108060914616881</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>362</v>
@@ -2290,19 +2290,19 @@
         <v>300998</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>267441</v>
+        <v>271248</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>335114</v>
+        <v>339457</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09229193815149594</v>
+        <v>0.09229193815149593</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08200278721056359</v>
+        <v>0.08317002843947749</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1027526131086746</v>
+        <v>0.1040842708671855</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>30989</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20664</v>
+        <v>20523</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48000</v>
+        <v>47506</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01978501280609443</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01319297102126555</v>
+        <v>0.01310315993580404</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03064605762150735</v>
+        <v>0.03033053872227863</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -2340,19 +2340,19 @@
         <v>40555</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30099</v>
+        <v>31664</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52943</v>
+        <v>54494</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0239245970440442</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01775663975896202</v>
+        <v>0.01867946915827876</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03123291101181316</v>
+        <v>0.03214814241717585</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>83</v>
@@ -2361,19 +2361,19 @@
         <v>71543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>56397</v>
+        <v>56184</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>91669</v>
+        <v>90047</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02193656557869836</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01729242567497289</v>
+        <v>0.01722716455307975</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02810764316938556</v>
+        <v>0.027610224062752</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>8631</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3755</v>
+        <v>4142</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16366</v>
+        <v>17806</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.005510759032703635</v>
+        <v>0.005510759032703634</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.002397390635716575</v>
+        <v>0.002644483169476934</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01044900739447415</v>
+        <v>0.01136871582769895</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>32</v>
@@ -2411,19 +2411,19 @@
         <v>20929</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>14484</v>
+        <v>13730</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>30403</v>
+        <v>29100</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01234686822717714</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.008544719195993726</v>
+        <v>0.008099540965630434</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01793577330558031</v>
+        <v>0.01716700591517368</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>40</v>
@@ -2432,19 +2432,19 @@
         <v>29560</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20731</v>
+        <v>20701</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>40154</v>
+        <v>40222</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.009063833169075669</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.006356458853345961</v>
+        <v>0.006347353080238895</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0123121623970247</v>
+        <v>0.01233277765215794</v>
       </c>
     </row>
     <row r="28">
